--- a/biology/Botanique/Semoule/Semoule.xlsx
+++ b/biology/Botanique/Semoule/Semoule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La semoule est un produit de meunerie, obtenu par mouture grossière de grains humidifiés de céréales (en particulier de blé dur), tamisages et sassage. La semoule est le produit intermédiaire entre le grain et la farine.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Riche en gluten, la semoule de blé dur est employée en cuisine dans diverses préparations, notamment le gâteau de semoule, les potages et le couscous, et sert à la fabrication des pâtes alimentaires. L'emploi de semoule de blé dur pour la fabrication des pâtes est obligatoire dans certains pays comme la France et l'Italie.
 Il y a plusieurs catégories de semoules :
@@ -554,10 +568,12 @@
           <t>Procédés de fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les étapes de la transformation du blé dur en semoule ont lieu à température ambiante.
-En premier lieu, le blé est transporté, réceptionné et échantillonné. L'agréage est une analyse visuelle et olfactive qui permet de détecter les contaminations biologiques dues à la présence d'insectes ou de rongeurs, les contaminations chimiques résultant d'un traitement insecticide récent et les contaminations microbiologiques (présence de blés moisis). Puis l’échantillonnage permet de détecter la présence d'insectes vivants, le seuil de densité estimé est d’un insecte adulte par kilogramme de blé dur. Ceci permet aussi dans un deuxième temps d'évaluer la qualité physicochimique et sanitaire des blés[1],[2].
+En premier lieu, le blé est transporté, réceptionné et échantillonné. L'agréage est une analyse visuelle et olfactive qui permet de détecter les contaminations biologiques dues à la présence d'insectes ou de rongeurs, les contaminations chimiques résultant d'un traitement insecticide récent et les contaminations microbiologiques (présence de blés moisis). Puis l’échantillonnage permet de détecter la présence d'insectes vivants, le seuil de densité estimé est d’un insecte adulte par kilogramme de blé dur. Ceci permet aussi dans un deuxième temps d'évaluer la qualité physicochimique et sanitaire des blés,.
 Le blé est ensuite déchargé et pré-nettoyé, ce qui permet d’éliminer les gros déchets tels que le sable et la paille. Puis, il est stocké dans des silos à grains. Au moment de la mise en silo, le blé est classé selon son origine, sa variété et ses caractéristiques spécifiques. Les conditions de stockage doivent être surveillées et maîtrisées pour assurer la bonne conservation des blés durs. Les différents lots de blé subissent ensuite le cyclonage et le criblage. Il s’agit d’un nettoyage à sec par procédé mécanique, qui a pour but d’éliminer le germe de blé, réduire le nombre d’insectes, enlever les graines céréalières étrangères et les débris.
 Puis, le blé est mouillé (apport d'eau par pulvérisation) et mis au repos pour faciliter la séparation de l'amande du grain de son enveloppe extérieure, le futur son, qui sera éliminé au cours de la mouture. Les mouillages permettent d’amener le blé à 17 % d'humidité environ, suivis de repos en cellules d'une durée variable de quelques heures selon les semouleries et les blés. L'eau apportée doit respecter les exigences de qualité fixées par la réglementation (code de la santé publique).
 Ensuite, le procédé de mouture des grains de blé dur consiste à séparer l'amande des enveloppes en commençant par isoler les parties les plus internes du grain et en se rapprochant progressivement de la périphérie (de l'intérieur vers l'extérieur). Afin d’avoir une semoule bien calibrée et totalement pure, le blé subit plusieurs traitements industriels dit de « semoulerie ».
@@ -565,7 +581,7 @@
 le broyage : le blé est placé dans des broyeurs à cylindres cannelés permettant un broyage progressif de façon à extraire la semoule en coupant l'enveloppe au minimum et en produisant un minimum de farine. Le but est d'éliminer au maximum les enveloppes et d'obtenir un produit grené, la semoule.
 le tamisage : les produits de la moulure sont classés en fonction de leur taille par le plansichter. On obtient des produits calibrés mais hétérogènes en qualité : les grains de semoule. Il subsiste encore des fragments d'enveloppe et des sons.
 le sassage : les produits sont séparés selon leur densité par aspiration : la semoule pure entre ici dans la composition du produit fini, la semoule contenant encore des enveloppes retourne à une étape de broyage, et le son est éliminé.
-Enfin, la semoule est conditionnée. Le contrôle de conformité des produits finis est effectué. Les semoules sont mises en citerne (conditionnement vrac) à destination des usines. Les citernes doivent être agréées et ne contenir qu’une seule qualité de semoule. Leurs trappes de chargement et les vannes d'extraction sont scellées après chargement[3].
+Enfin, la semoule est conditionnée. Le contrôle de conformité des produits finis est effectué. Les semoules sont mises en citerne (conditionnement vrac) à destination des usines. Les citernes doivent être agréées et ne contenir qu’une seule qualité de semoule. Leurs trappes de chargement et les vannes d'extraction sont scellées après chargement.
 </t>
         </is>
       </c>
